--- a/biology/Médecine/Fernand_Delarue/Fernand_Delarue.xlsx
+++ b/biology/Médecine/Fernand_Delarue/Fernand_Delarue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fernand Delarue, né le 31 décembre 1924 à Deûlémont (Nord) et mort le 13 septembre 1979 à Aubervilliers[1], est un essayiste français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fernand Delarue, né le 31 décembre 1924 à Deûlémont (Nord) et mort le 13 septembre 1979 à Aubervilliers, est un essayiste français.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est connu pour son opposition à la vaccination[2]. Ses livres ont été traduits en allemand et en anglais. Il a été président de la Ligue nationale pour la liberté des vaccinations de 1969 à 1979[3]. Il a rédigé des essais avec sa femme, Simone Delarue.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est connu pour son opposition à la vaccination. Ses livres ont été traduits en allemand et en anglais. Il a été président de la Ligue nationale pour la liberté des vaccinations de 1969 à 1979. Il a rédigé des essais avec sa femme, Simone Delarue.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'intoxication vaccinale, éditions du Seuil, 1977  (ISBN 978-2-020-04732-6) ; trad. Impfungen, der unglaubliche Irrtum, Hirthammer F. Verlag GmbH, 2004  (ISBN 978-3-887-21085-4)
 Les nouveaux parias, édité par Ligue nationale pour la liberté des vaccinations, 1971
